--- a/Code/Chetan_Patil/Inventory_Automation/Inventory_automation.xlsx
+++ b/Code/Chetan_Patil/Inventory_Automation/Inventory_automation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chetan\Learning\UiPath\Workspace\RPA-Developer-in-30-Days\Code\Chetan_Patil\Inventory_Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chetan\Learning\UiPath\Workspace\RPA-Developer-in-30-Days\Code\Chetan_Patil\Inventory_Automation\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA50536-E91E-4EA7-9342-2CD444511251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378C4B09-9778-455A-92B7-62C86F4D5482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{5BEA9C18-DD29-4109-8F24-F6D95B48380E}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{7D0E2324-AE64-4033-97AB-CCA0DDC4F4A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Store" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="288">
   <si>
     <t>Product</t>
   </si>
@@ -65,8 +65,7 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Aniseed Syrup
-Manage</t>
+    <t>Aniseed Syrup</t>
   </si>
   <si>
     <t>Seasoning</t>
@@ -88,11 +87,10 @@
 </t>
   </si>
   <si>
-    <t>6110 Lemmon Ave, Texas 75209.  Telephone No : (214) 654-9939</t>
-  </si>
-  <si>
-    <t>Chai
-Manage</t>
+    <t>6110 Lemmon Ave, Texas 75209.  Telephone No: (214) 654-9939</t>
+  </si>
+  <si>
+    <t>Chai</t>
   </si>
   <si>
     <t>Beverages</t>
@@ -115,8 +113,7 @@
 </t>
   </si>
   <si>
-    <t>Chang
-Manage</t>
+    <t>Chang</t>
   </si>
   <si>
     <t>101
@@ -135,8 +132,7 @@
 </t>
   </si>
   <si>
-    <t>Chartreuse verte
-Manage</t>
+    <t>Chartreuse verte</t>
   </si>
   <si>
     <t>867
@@ -155,8 +151,7 @@
 </t>
   </si>
   <si>
-    <t>Chef Anton's Cajun Seasoning
-Manage</t>
+    <t>Chef Anton's Cajun Seasoning</t>
   </si>
   <si>
     <t>946
@@ -175,8 +170,7 @@
 </t>
   </si>
   <si>
-    <t>Chef Anton's Gumbo Mix
-Manage</t>
+    <t>Chef Anton's Gumbo Mix</t>
   </si>
   <si>
     <t>948
@@ -195,8 +189,7 @@
 </t>
   </si>
   <si>
-    <t>Cote de Blaye
-Manage</t>
+    <t>Cote de Blaye</t>
   </si>
   <si>
     <t>904
@@ -215,8 +208,7 @@
 </t>
   </si>
   <si>
-    <t>Genen Shouyu
-Manage</t>
+    <t>Genen Shouyu</t>
   </si>
   <si>
     <t>933
@@ -235,8 +227,7 @@
 </t>
   </si>
   <si>
-    <t>Grandma's Boysenberry Spread
-Manage</t>
+    <t>Grandma's Boysenberry Spread</t>
   </si>
   <si>
     <t>922
@@ -255,8 +246,7 @@
 </t>
   </si>
   <si>
-    <t>Guarana Fantastica
-Manage</t>
+    <t>Guarana Fantastica</t>
   </si>
   <si>
     <t>817
@@ -275,8 +265,7 @@
 </t>
   </si>
   <si>
-    <t>Gula Malacca
-Manage</t>
+    <t>Gula Malacca</t>
   </si>
   <si>
     <t>865
@@ -295,8 +284,7 @@
 </t>
   </si>
   <si>
-    <t>Ipoh Coffee
-Manage</t>
+    <t>Ipoh Coffee</t>
   </si>
   <si>
     <t>769
@@ -315,8 +303,7 @@
 </t>
   </si>
   <si>
-    <t>Lakkalikoori
-Manage</t>
+    <t>Lakkalikoori</t>
   </si>
   <si>
     <t>929
@@ -326,8 +313,7 @@
 1857</t>
   </si>
   <si>
-    <t>Laughing Lumberjack Lager
-Manage</t>
+    <t>Laughing Lumberjack Lager</t>
   </si>
   <si>
     <t>895
@@ -346,8 +332,7 @@
 </t>
   </si>
   <si>
-    <t>Louisiana Fiery Hot Pepper Sauce
-Manage</t>
+    <t>Louisiana Fiery Hot Pepper Sauce</t>
   </si>
   <si>
     <t>962
@@ -366,8 +351,7 @@
 </t>
   </si>
   <si>
-    <t>Louisiana Hot Spiced Okra
-Manage</t>
+    <t>Louisiana Hot Spiced Okra</t>
   </si>
   <si>
     <t>979
@@ -386,8 +370,7 @@
 </t>
   </si>
   <si>
-    <t>Northwoods Cranberry Sauce
-Manage</t>
+    <t>Northwoods Cranberry Sauce</t>
   </si>
   <si>
     <t>912
@@ -406,8 +389,7 @@
 </t>
   </si>
   <si>
-    <t>Original Frankfurter Grune SoBe
-Manage</t>
+    <t>Original Frankfurter Grune SoBe</t>
   </si>
   <si>
     <t>955
@@ -426,8 +408,7 @@
 </t>
   </si>
   <si>
-    <t>Outback Lager
-Manage</t>
+    <t>Outback Lager</t>
   </si>
   <si>
     <t>875
@@ -446,8 +427,7 @@
 </t>
   </si>
   <si>
-    <t>Rhonbrau Klosterbier
-Manage</t>
+    <t>Rhonbrau Klosterbier</t>
   </si>
   <si>
     <t>935
@@ -466,8 +446,7 @@
 </t>
   </si>
   <si>
-    <t>Sasquatch Ale
-Manage</t>
+    <t>Sasquatch Ale</t>
   </si>
   <si>
     <t>831
@@ -477,8 +456,7 @@
 1660</t>
   </si>
   <si>
-    <t>Sirop d'erable
-Manage</t>
+    <t>Sirop d'erable</t>
   </si>
   <si>
     <t>949
@@ -497,8 +475,7 @@
 </t>
   </si>
   <si>
-    <t>Steeleye Stout
-Manage</t>
+    <t>Steeleye Stout</t>
   </si>
   <si>
     <t>668
@@ -508,8 +485,7 @@
 1337</t>
   </si>
   <si>
-    <t>Veggie Spread
-Manage</t>
+    <t>Veggie Spread</t>
   </si>
   <si>
     <t>825
@@ -532,75 +508,6 @@
   </si>
   <si>
     <t>Chai  (open in a new window)</t>
-  </si>
-  <si>
-    <t>Chang</t>
-  </si>
-  <si>
-    <t>Chartreuse verte</t>
-  </si>
-  <si>
-    <t>Cote de Blaye</t>
-  </si>
-  <si>
-    <t>Guarana Fantastica</t>
-  </si>
-  <si>
-    <t>Ipoh Coffee</t>
-  </si>
-  <si>
-    <t>Lakkalikoori</t>
-  </si>
-  <si>
-    <t>Laughing Lumberjack Lager</t>
-  </si>
-  <si>
-    <t>Outback Lager</t>
-  </si>
-  <si>
-    <t>Rhonbrau Klosterbier</t>
-  </si>
-  <si>
-    <t>Sasquatch Ale</t>
-  </si>
-  <si>
-    <t>Steeleye Stout</t>
-  </si>
-  <si>
-    <t>Aniseed Syrup</t>
-  </si>
-  <si>
-    <t>Chef Anton's Cajun Seasoning</t>
-  </si>
-  <si>
-    <t>Chef Anton's Gumbo Mix</t>
-  </si>
-  <si>
-    <t>Genen Shouyu</t>
-  </si>
-  <si>
-    <t>Grandma's Boysenberry Spread</t>
-  </si>
-  <si>
-    <t>Gula Malacca</t>
-  </si>
-  <si>
-    <t>Louisiana Fiery Hot Pepper Sauce</t>
-  </si>
-  <si>
-    <t>Louisiana Hot Spiced Okra</t>
-  </si>
-  <si>
-    <t>Northwoods Cranberry Sauce</t>
-  </si>
-  <si>
-    <t>Original Frankfurter Grune SoBe</t>
-  </si>
-  <si>
-    <t>Sirop d'erable</t>
-  </si>
-  <si>
-    <t>Veggie Spread</t>
   </si>
   <si>
     <t>State</t>
@@ -1577,7 +1484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502EAE5D-C318-458F-891A-762775209556}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828D898A-8EE8-4661-896F-761312B374FB}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1586,39 +1493,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>36801</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="F2" s="3">
         <v>0.49444444444444446</v>
@@ -1626,19 +1533,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D3">
         <v>99611</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="F3" s="3">
         <v>0.49444444444444446</v>
@@ -1646,19 +1553,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>85374</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="F4" s="3">
         <v>0.49444444444444446</v>
@@ -1666,19 +1573,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <v>72404</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F5" s="3">
         <v>0.49444444444444446</v>
@@ -1686,19 +1593,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D6">
         <v>91766</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="F6" s="3">
         <v>0.49444444444444446</v>
@@ -1706,19 +1613,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D7">
         <v>80501</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F7" s="3">
         <v>0.49444444444444446</v>
@@ -1726,19 +1633,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D8">
         <v>6824</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F8" s="3">
         <v>0.49444444444444446</v>
@@ -1746,19 +1653,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="D9">
         <v>19802</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="F9" s="3">
         <v>0.49444444444444446</v>
@@ -1766,19 +1673,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D10">
         <v>32097</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="F10" s="3">
         <v>0.49444444444444446</v>
@@ -1786,19 +1693,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="D11">
         <v>30269</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F11" s="3">
         <v>0.49444444444444446</v>
@@ -1806,19 +1713,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D12">
         <v>96817</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="F12" s="3">
         <v>0.49444444444444446</v>
@@ -1826,19 +1733,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="D13">
         <v>83202</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="F13" s="3">
         <v>0.49444444444444446</v>
@@ -1846,19 +1753,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D14">
         <v>60607</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="F14" s="3">
         <v>0.49444444444444446</v>
@@ -1866,19 +1773,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="D15">
         <v>46219</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="F15" s="3">
         <v>0.49444444444444446</v>
@@ -1886,19 +1793,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="D16">
         <v>50320</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="F16" s="3">
         <v>0.49444444444444446</v>
@@ -1906,19 +1813,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="D17">
         <v>67501</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="F17" s="3">
         <v>0.49444444444444446</v>
@@ -1926,19 +1833,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D18">
         <v>40207</v>
       </c>
       <c r="E18" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="F18" s="3">
         <v>0.49444444444444446</v>
@@ -1946,19 +1853,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D19">
         <v>70119</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="F19" s="3">
         <v>0.49444444444444446</v>
@@ -1966,19 +1873,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="D20">
         <v>4103</v>
       </c>
       <c r="E20" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="F20" s="3">
         <v>0.49444444444444446</v>
@@ -1986,19 +1893,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D21">
         <v>20906</v>
       </c>
       <c r="E21" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="F21" s="3">
         <v>0.49444444444444446</v>
@@ -2006,19 +1913,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="D22">
         <v>2125</v>
       </c>
       <c r="E22" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F22" s="3">
         <v>0.49444444444444446</v>
@@ -2026,19 +1933,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="D23">
         <v>48125</v>
       </c>
       <c r="E23" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="F23" s="3">
         <v>0.49444444444444446</v>
@@ -2046,19 +1953,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="D24">
         <v>55077</v>
       </c>
       <c r="E24" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="F24" s="3">
         <v>0.49444444444444446</v>
@@ -2066,19 +1973,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="D25">
         <v>39180</v>
       </c>
       <c r="E25" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="F25" s="3">
         <v>0.49444444444444446</v>
@@ -2086,19 +1993,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="D26">
         <v>63139</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="F26" s="3">
         <v>0.49444444444444446</v>
@@ -2106,19 +2013,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="C27" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D27">
         <v>59102</v>
       </c>
       <c r="E27" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="F27" s="3">
         <v>0.49444444444444446</v>
@@ -2126,19 +2033,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="B28" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="D28">
         <v>68134</v>
       </c>
       <c r="E28" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="F28" s="3">
         <v>0.49444444444444446</v>
@@ -2146,19 +2053,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="B29" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="C29" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="D29">
         <v>89104</v>
       </c>
       <c r="E29" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="F29" s="3">
         <v>0.49444444444444446</v>
@@ -2166,19 +2073,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="C30" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="D30">
         <v>3801</v>
       </c>
       <c r="E30" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F30" s="3">
         <v>0.49444444444444446</v>
@@ -2186,19 +2093,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C31" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="D31">
         <v>7047</v>
       </c>
       <c r="E31" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="F31" s="3">
         <v>0.49444444444444446</v>
@@ -2206,19 +2113,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="C32" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="D32">
         <v>87124</v>
       </c>
       <c r="E32" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="F32" s="3">
         <v>0.49444444444444446</v>
@@ -2226,19 +2133,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="B33" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D33">
         <v>10940</v>
       </c>
       <c r="E33" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="F33" s="3">
         <v>0.49444444444444446</v>
@@ -2246,19 +2153,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D34">
         <v>27103</v>
       </c>
       <c r="E34" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="F34" s="3">
         <v>0.49444444444444446</v>
@@ -2266,19 +2173,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="B35" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="C35" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="D35">
         <v>58103</v>
       </c>
       <c r="E35" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="F35" s="3">
         <v>0.49444444444444446</v>
@@ -2286,19 +2193,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="B36" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="C36" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D36">
         <v>43026</v>
       </c>
       <c r="E36" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="F36" s="3">
         <v>0.49444444444444446</v>
@@ -2306,19 +2213,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="C37" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="D37">
         <v>73112</v>
       </c>
       <c r="E37" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="F37" s="3">
         <v>0.49444444444444446</v>
@@ -2326,19 +2233,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="B38" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="C38" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D38">
         <v>97005</v>
       </c>
       <c r="E38" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="F38" s="3">
         <v>0.49444444444444446</v>
@@ -2346,19 +2253,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="C39" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="D39">
         <v>15206</v>
       </c>
       <c r="E39" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="F39" s="3">
         <v>0.49444444444444446</v>
@@ -2366,19 +2273,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="B40" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C40" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="D40">
         <v>2852</v>
       </c>
       <c r="E40" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="F40" s="3">
         <v>0.49444444444444446</v>
@@ -2386,19 +2293,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="C41" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="D41">
         <v>29223</v>
       </c>
       <c r="E41" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="F41" s="3">
         <v>0.49444444444444446</v>
@@ -2406,19 +2313,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B42" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C42" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="D42">
         <v>57106</v>
       </c>
       <c r="E42" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="F42" s="3">
         <v>0.49444444444444446</v>
@@ -2426,19 +2333,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="B43" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="C43" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="D43">
         <v>37204</v>
       </c>
       <c r="E43" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="F43" s="3">
         <v>0.49444444444444446</v>
@@ -2446,19 +2353,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="B44" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C44" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="D44">
         <v>75209</v>
       </c>
       <c r="E44" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="F44" s="3">
         <v>0.49444444444444446</v>
@@ -2466,19 +2373,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="B45" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="C45" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="D45">
         <v>84601</v>
       </c>
       <c r="E45" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="F45" s="3">
         <v>0.49444444444444446</v>
@@ -2486,19 +2393,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="B46" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="C46" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="D46">
         <v>5701</v>
       </c>
       <c r="E46" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="F46" s="3">
         <v>0.49444444444444446</v>
@@ -2506,19 +2413,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="C47" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="D47">
         <v>20110</v>
       </c>
       <c r="E47" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="F47" s="3">
         <v>0.49444444444444446</v>
@@ -2526,19 +2433,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="B48" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="C48" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="D48">
         <v>98134</v>
       </c>
       <c r="E48" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="F48" s="3">
         <v>0.49444444444444446</v>
@@ -2546,19 +2453,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B49" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="C49" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="D49">
         <v>25309</v>
       </c>
       <c r="E49" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="F49" s="3">
         <v>0.49444444444444446</v>
@@ -2566,19 +2473,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="C50" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="D50">
         <v>53207</v>
       </c>
       <c r="E50" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="F50" s="3">
         <v>0.49444444444444446</v>
@@ -2586,19 +2493,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="B51" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="C51" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="D51">
         <v>82001</v>
       </c>
       <c r="E51" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="F51" s="3">
         <v>0.49444444444444446</v>
@@ -2610,7 +2517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE798890-3385-4896-AEA5-3E4AC4DB5D12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9462719A-66B3-4308-93DC-745266E8B24E}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2630,7 +2537,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -2641,7 +2548,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>22</v>
@@ -2652,7 +2559,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>21.36</v>
@@ -2663,7 +2570,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>15.5</v>
@@ -2674,7 +2581,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -2685,7 +2592,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>19.46</v>
@@ -2696,7 +2603,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>21.06</v>
@@ -2707,7 +2614,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>17</v>
@@ -2718,7 +2625,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>40</v>
@@ -2729,7 +2636,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>13</v>
@@ -2740,7 +2647,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="B12">
         <v>28.5</v>
@@ -2751,7 +2658,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B13">
         <v>43.9</v>
@@ -2766,7 +2673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCCF8A7-65EE-4698-AF0C-6E59B595BAFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C194E1F-7EBA-4378-96FE-399716240590}">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2797,7 +2704,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -2808,7 +2715,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>18</v>
@@ -2819,7 +2726,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>263.5</v>
@@ -2830,7 +2737,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>4.5</v>
@@ -2841,7 +2748,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>46</v>
@@ -2852,7 +2759,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -2863,7 +2770,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -2874,7 +2781,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -2885,7 +2792,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B11">
         <v>7.76</v>
@@ -2896,7 +2803,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>14</v>
@@ -2907,7 +2814,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>18</v>
@@ -2918,7 +2825,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -2929,7 +2836,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>22</v>
@@ -2940,7 +2847,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>21.36</v>
@@ -2951,7 +2858,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>15.5</v>
@@ -2962,7 +2869,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>25</v>
@@ -2973,7 +2880,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>19.46</v>
@@ -2984,7 +2891,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>21.06</v>
@@ -2995,7 +2902,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -3006,7 +2913,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>40</v>
@@ -3017,7 +2924,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -3028,7 +2935,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>28.5</v>
@@ -3039,7 +2946,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B25">
         <v>43.9</v>
@@ -3054,7 +2961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA387FC-0B7B-45DF-BDF1-7E20F0790CFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FD76BA-7549-405D-9EEE-C7AF274D1221}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3088,7 +2995,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
@@ -3114,7 +3021,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
@@ -3140,7 +3047,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
@@ -3166,7 +3073,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5">
@@ -3192,7 +3099,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6">
@@ -3218,7 +3125,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7">
@@ -3244,7 +3151,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8">
@@ -3270,7 +3177,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="B9">
@@ -3296,7 +3203,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10">
@@ -3322,7 +3229,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
       <c r="B11">
@@ -3348,7 +3255,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>41</v>
       </c>
       <c r="B12">
@@ -3374,7 +3281,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>44</v>
       </c>
       <c r="B13">
@@ -3400,7 +3307,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>47</v>
       </c>
       <c r="B14">
@@ -3426,7 +3333,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>49</v>
       </c>
       <c r="B15">
@@ -3452,7 +3359,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>52</v>
       </c>
       <c r="B16">
@@ -3478,7 +3385,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>55</v>
       </c>
       <c r="B17">
@@ -3504,7 +3411,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
       <c r="B18">
@@ -3530,7 +3437,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>61</v>
       </c>
       <c r="B19">
@@ -3556,7 +3463,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>64</v>
       </c>
       <c r="B20">
@@ -3582,7 +3489,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>67</v>
       </c>
       <c r="B21">
@@ -3608,7 +3515,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>70</v>
       </c>
       <c r="B22">
@@ -3634,7 +3541,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>72</v>
       </c>
       <c r="B23">
@@ -3660,7 +3567,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>75</v>
       </c>
       <c r="B24">
@@ -3686,7 +3593,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>77</v>
       </c>
       <c r="B25">
@@ -3717,7 +3624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F902D024-020A-4768-ADC7-4CA60AAFFA8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8A2A35-D4B0-4415-9C8C-BF5F48DF8B9C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
